--- a/biology/Zoologie/Arhopala_atosia/Arhopala_atosia.xlsx
+++ b/biology/Zoologie/Arhopala_atosia/Arhopala_atosia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arhopala atosia est un insecte lépidoptère de la famille des Lycaenidae de la sous-famille des Theclinae, du genre Arhopala.
 </t>
@@ -511,47 +523,120 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arhopala atosia a été décrit par William Chapman Hewitson en 1863 sous le nom d' Amblypodia atosia.
-Synonyme : Narathura atosia, Evans, 1957[1].
-Sous-espèces
-Arhopala atosia atosia
+Synonyme : Narathura atosia, Evans, 1957.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arhopala_atosia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arhopala_atosia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arhopala atosia atosia
 Arhopala atosia aria (Evans, 1932)
 Arhopala atosia aricia (Staudinger, 1889)
 Arhopala atosia jahara Corbet, 1941;
-Arhopala atosia malayana Bethune-Baker, 1903[1].
-Noms vernaculaires
-La sous-espèce Arhopala atosia malayana se nomme Tailed Disc Oakblue en anglais[1].
+Arhopala atosia malayana Bethune-Baker, 1903.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arhopala_atosia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arhopala_atosia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Arhopala atosia malayana se nomme Tailed Disc Oakblue en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Arhopala_atosia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arhopala_atosia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit papillon possède une fine queue à chaque aile postérieure. Le dessus est violet bordé d'une ligne ou d'une large bande ocre.
 Le revers est ocre clair orné de fines marques dorés, chevrons en ligne ou cercles avec près de la queue deux ocelles bleu métallique en position anale.
@@ -559,71 +644,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arhopala_atosia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arhopala_atosia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Période de vol
-Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arhopala_atosia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arhopala_atosia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le sud-est asiatique en Birmanie, Thaïlande, Laos, Vietnam, sud du Myanmar, Malaisie, à Bornéo et Sumatra[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -645,10 +665,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le sud-est asiatique en Birmanie, Thaïlande, Laos, Vietnam, sud du Myanmar, Malaisie, à Bornéo et Sumatra,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arhopala_atosia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arhopala_atosia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arhopala_atosia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arhopala_atosia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission du Laos de 1993 (valeur faciale : 35 k.).
 </t>
